--- a/MoM_Excellence_program.xlsx
+++ b/MoM_Excellence_program.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbceec1c4b8718ad/Desktop/bitXin/Collab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fadil\OneDrive\Documents\GitHub\Excellence-Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FB6A25D6BA532E876DF09A4BF29B29F63565F785" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79DF946C-2F77-41A6-BDD1-AA68B5D5EA7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -575,6 +575,43 @@
 Let us think how your individual project and demonstrator supports the overall goal
 Let us think how Infineon semiconductors can serve the farm
 Think about virtual big, think about demonstrators small – doable within 4-8 weeks, plan medium what can be done in one year, two years, five years</t>
+  </si>
+  <si>
+    <t>10.01.2025</t>
+  </si>
+  <si>
+    <t>Adams: thanks for integrating ball mill into the sustainable farm would be good if you can give some figures in an .xls. use class names for the column headlines
+Always good if you check the homepage upfront</t>
+  </si>
+  <si>
+    <t>Adjara: Maybe we can all look at your ontology</t>
+  </si>
+  <si>
+    <t>Charles: thanks for integrating the irrigation into the sustainable farm would be good if you can give some figures in an .xls. use class names for the column headlines</t>
+  </si>
+  <si>
+    <t>Lucas:  thanks for integrating the smart dryer into the sustainable farm would be good if you can give some figures in an .xls. use class names for the column headlines</t>
+  </si>
+  <si>
+    <t>Boris: think about how to integrate Face recognition into the sustainable farm. I like the way of detecting beneficial and non beneficial plants. Maybe also access rights for the farms</t>
+  </si>
+  <si>
+    <t>Gertrude: Think about the size of the solar system</t>
+  </si>
+  <si>
+    <t>Wilfried: Solar tracking system to increase output of solar panels. Think about the size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamado:   language is important I agree
+</t>
+  </si>
+  <si>
+    <t>General: 
+All let us think about the size for simulation, for small and medium prototype.
+Maybe we work together on building the farm .xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer, Seah Qiao Ling, JamesDevassia Cherupillet</t>
   </si>
 </sst>
 </file>
@@ -1738,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3284,9 +3321,268 @@
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="9">
+        <v>7</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>2</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>3</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>4</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>5</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>6</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>7</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>8</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>9</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>10</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>11</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:H46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C76:E76"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C45:E45"/>
@@ -3306,7 +3602,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:F75 F21:F31 F6:F18 F47:F58 F61:F62 F34:F44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:F75 F21:F31 F6:F18 F47:F58 F61:F62 F34:F44 F78:F88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -3384,18 +3680,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3513,6 +3809,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099BC07E-159D-4A16-BA20-897EF5E09C4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3523,14 +3827,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/MoM_Excellence_program.xlsx
+++ b/MoM_Excellence_program.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fadil\OneDrive\Documents\GitHub\Excellence-Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbceec1c4b8718ad/Documents/GitHub/Excellence-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{768AE710-AA20-4B3E-8F1A-9D11C7010E90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -612,6 +612,38 @@
   </si>
   <si>
     <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer, Seah Qiao Ling, JamesDevassia Cherupillet</t>
+  </si>
+  <si>
+    <t>17.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm,Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer</t>
+  </si>
+  <si>
+    <t>Adams: can you show next time your .xls – the Ball Mill being part of the overall farm                                                                                                          Very interesting point of view you made by looking at three impacts, it’s it would be interesting to conduct a SWOT analysis about the economic, societal and environmental impacts of the sustainable farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjara: really interested on the time planning in .xls                                                                                                                                                                                     
+Nice to see the stages of the farm, could you perform a risk analysis of each stage e.g. during growing stage drought could be a risk, or floods …etc</t>
+  </si>
+  <si>
+    <t>Charles: really interested on your .xls file on the amount of irrigation – aligned with Charles and Alcia’s – earlier idea                                                                 automatic irrigation system is a very interesting idea, it would be interesting to conduct a SWOT analysis about automatic vs tradition irrigation systems</t>
+  </si>
+  <si>
+    <t>Lucas: really interested on your .xls file – what fruits do you want to grow, harvest and dry                                                                                      it is very interesting to see how simulation could help assess long term impact, it would be interesting to conduct a SWOT analysis about the long term impact of the sustainable farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boris:really interested on your .xls and how it is connected with the irrigation, solar, fruit and irrigation                                                          Using Infineon sensors in the sustainable is a great idea, it would be interesting to conduct a SWOT analysis for smart sustainable farm which is using sensors from Infineon vs traditional sustainable farm which is not using smart solutions                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gertrude: really interested on the .xls, the size of the input: energy, water,… and the output: fruits, dried fruits, …. And needed resources for the scenario as discussed (and the column names linked to the classes in the individual and overall ontology)                                                           solar energy is an nice idea because it is clean energy, it would be interesting to conduct a SWOT analysis about the PV solar system  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilfried: really interested in the demonstrators and how they look                        I am glad that we have a lot of demonstrators we can show from the sustainable farm, could you list all demonstrators and what is the expected improvement from each one e.g. 10% water saving                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamado:   language is important I agree                                                     To make sure the farm is “sustainable” medium and long term planning is important, therefore excellent work you did Hamada, could you include a performance baseline to assess planned progress vs actual progress e.g. you plan in one year that the sustainable is up and running, but what happens in actual life                                                           
+</t>
   </si>
 </sst>
 </file>
@@ -1775,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,9 +3611,228 @@
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
     </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="9">
+        <v>8</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>5</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>6</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>8</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>9</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:H46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C89:E89"/>
     <mergeCell ref="C76:E76"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="A1:H1"/>
@@ -3602,7 +3853,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:F75 F21:F31 F6:F18 F47:F58 F61:F62 F34:F44 F78:F88" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:F75 F21:F31 F6:F18 F47:F58 F61:F62 F34:F44 F78:F88 F91:F99" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -3680,18 +3931,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3809,14 +4060,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099BC07E-159D-4A16-BA20-897EF5E09C4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3827,6 +4070,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/MoM_Excellence_program.xlsx
+++ b/MoM_Excellence_program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbceec1c4b8718ad/Documents/GitHub/Excellence-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{768AE710-AA20-4B3E-8F1A-9D11C7010E90}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4081501D-48DA-4DC2-AF00-E35D5A682289}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,126 +20,122 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Minutes of Meeting-'!$A$3:$H$46</definedName>
     <definedName name="Status">Instructions!$A$3:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="198">
+  <si>
+    <t>Meeting Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Name of the owner</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>29.11.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm, Abdelgafar Ismail, Diallo Fadila, Excellence program Students</t>
+  </si>
+  <si>
+    <t>Name(s) of responsible(s)</t>
+  </si>
+  <si>
+    <t>DD.MM.YYYY</t>
+  </si>
+  <si>
+    <t>Item #</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
-    <t>Item #</t>
-  </si>
-  <si>
-    <t>Item Type</t>
-  </si>
-  <si>
-    <t>Topics</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Fist session Jf session led by Hans and gave feedbacks to students.               -Fadila presented the student</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Status for A/I (action items)</t>
-  </si>
-  <si>
-    <t>A/I not started yet</t>
-  </si>
-  <si>
-    <t>A/I is started, not finished</t>
-  </si>
-  <si>
-    <t>A/I finished</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Name of the owner</t>
-  </si>
-  <si>
-    <t>Name(s) of responsible(s)</t>
-  </si>
-  <si>
-    <t>A/I</t>
-  </si>
-  <si>
-    <t>DD.MM.YYYY</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>Feedback Info</t>
+  </si>
+  <si>
+    <t>Feedback   to Adams:
+Thanks a lot. I did not really get what you mean with a ball. And what you mill</t>
   </si>
   <si>
     <t>Hans</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>All</t>
+    <t>Feedback to Adjara:                                                                                                        Like the music idea – can you add a link with typical music? Some Christmas choral as well?</t>
+  </si>
+  <si>
+    <t>Feedback to Alicia:  What is cowpea- maybe you can add a picture and a link</t>
   </si>
   <si>
     <t>Feed back to Charles: Would be good if you have a logo – what kind of sensors your are looking into it. Are you aware of IFX sensors?</t>
-  </si>
-  <si>
-    <t>Feedback to Boris: How is face recognition working with a camera, do you know the RADAR chip from Infineon?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hans Ehm, Abdelgafar Ismail, Diallo Fadila, Excellence program Students</t>
-  </si>
-  <si>
-    <t>Abdo Presented a powerpoint presentation about the ontologies</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Next Jf: each must create ontologies  for their personal  project</t>
   </si>
   <si>
     <t>Feedback to Lucas:
 How is your dryer working with electricity?</t>
+  </si>
+  <si>
+    <t>Feedback to Boris: How is face recognition working with a camera, do you know the RADAR chip from Infineon?</t>
   </si>
   <si>
     <t>Feedback to Gertrude:
@@ -151,33 +147,51 @@
 Can your solar tracking</t>
   </si>
   <si>
-    <t>Abdo</t>
-  </si>
-  <si>
     <t>Feedback to Hamado:
 What is a Mossi Trade? Maybe add a link</t>
   </si>
   <si>
+    <t>A/I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feedback to all :     All it would be good if you add a link with some documents or add links (hyperlink with good names) .  have less space between your introduction and the main part. Add Logo </t>
   </si>
   <si>
-    <t>Feedback   to Adams:
-Thanks a lot. I did not really get what you mean with a ball. And what you mill</t>
-  </si>
-  <si>
-    <t>Feedback to Adjara:                                                                                                        Like the music idea – can you add a link with typical music? Some Christmas choral as well?</t>
-  </si>
-  <si>
-    <t>29.11.2024</t>
+    <t>Abdo Presented a powerpoint presentation about the ontologies</t>
+  </si>
+  <si>
+    <t>Abdo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Next Jf: each must create ontologies  for their personal  project</t>
   </si>
   <si>
     <t>06.12.2024</t>
   </si>
   <si>
-    <t>Fist session Jf session led by Hans and gave feedbacks to students.               -Fadila presented the student</t>
-  </si>
-  <si>
-    <t>Feedback to Alicia:  What is cowpea- maybe you can add a picture and a link</t>
+    <t xml:space="preserve"> Hans Ehm, Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer,Dominik Bisslich,Henrik Schmielau, Seah Qiao Ling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction, Presention </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam: Maybe you can send the ball mill ontology; Also use a Logo – e.g. the one from Alica was nice                                                                  -- did you include in the ontology a class related to health impact from the ball mill and how to mitigate the health risks         </t>
+  </si>
+  <si>
+    <t>Hans,Abdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjara: Thank you very much. I would be really interested to see your ontology. Maybe you can send it to us                                                        - did you include how the music app an entity regarding the business model? How the app generate income        </t>
+  </si>
+  <si>
+    <t>Alica: Maybe you can send the ontology, The Project / Task text is a bit dark you may update. Maybe add a Wikipdia link to cowpea 
+- did you think of adding a class to the ontology related to the- waste which comes out of the machine so that this waste could be used e.g. as food for animal or to create fertilizers or biofuel e.g.</t>
   </si>
   <si>
     <t>Charles: Please name you main topic: Maybe you can send me your ontology; Also use a Logo – e.g. the one from Alica was nice 
@@ -203,35 +217,77 @@
 a class about the accuracy of the translation and how to measure it in the app?</t>
   </si>
   <si>
-    <t>Alica: Maybe you can send the ontology, The Project / Task text is a bit dark you may update. Maybe add a Wikipdia link to cowpea 
-- did you think of adding a class to the ontology related to the- waste which comes out of the machine so that this waste could be used e.g. as food for animal or to create fertilizers or biofuel e.g.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam: Maybe you can send the ball mill ontology; Also use a Logo – e.g. the one from Alica was nice                                                                  -- did you include in the ontology a class related to health impact from the ball mill and how to mitigate the health risks         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjara: Thank you very much. I would be really interested to see your ontology. Maybe you can send it to us                                                        - did you include how the music app an entity regarding the business model? How the app generate income        </t>
-  </si>
-  <si>
-    <t>Feedback Info</t>
-  </si>
-  <si>
     <t>two lines, visual of ontologie -&gt; two classes (nation:bf, institute (bit))</t>
   </si>
   <si>
-    <t>Hans,Abdo</t>
-  </si>
-  <si>
     <t>13.12.2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction, Presention </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hans Ehm, Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer,Dominik Bisslich,Henrik Schmielau, Seah Qiao Ling</t>
+    <t xml:space="preserve"> Hans Ehm, Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,botho schanze, Seah Qiao Ling</t>
   </si>
   <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>Adams: thanks a lot. Nice picture. Will have a look on the ontology; What data are you recording; any ideas in additional data (just pick two) and what kind of sensors would be interested for Ball Mill. What is an artisanal Mine. Maybe you can add a link to it. On the ontology also have the properties.                                                                                                      -Thank you for considering the Sustainability aspect (health, social and economic aspects), could you find any linkage to sustainable development Goals UN SDGs – 17 goals which ones your project address</t>
+  </si>
+  <si>
+    <t>20.12.2024</t>
+  </si>
+  <si>
+    <t>Adjara; have you heard about Infineon loudspeaker and microphones. Maybe you can add those to your Ontology. It would be good to have properties between the classes.
+ -Did you think of how your app could also reach customers outside Burkina, e.g. Spotify started in Sweden but also become worldwide</t>
+  </si>
+  <si>
+    <t>20.12.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia; great that you already used Protege, Are you recording any data in your cowpea thresher; any ideas in additional data (just pick two) and what kind of sensors would be interested for cowpea tresher.                                                                                                              - please also find link between your project and the sustainable development Goals UN SDGs - 17 goals which ones your project address                           </t>
+  </si>
+  <si>
+    <t>20.12.2026</t>
+  </si>
+  <si>
+    <t>Charles: Also put a picture of your ontology in. What data are you recording with the moisture sensor. Maybe you can add more details on the ontology on the moisture sensor and how it works.
+ -please look at the linkage between your project and the sustainable development Goals UN SDGs - 17 goals which ones your project address</t>
+  </si>
+  <si>
+    <t>20.12.2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas: Add a link to the smart dryer project (not just ontology). You explained verbally the sensors but add a picture and a document explaining the sensors. What data are you recording in which period. Make and example                                                                                                          -did you add a class in the drowling related to the fruit/vegetal supplier? Local farmers e.g. also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address
+                            </t>
+  </si>
+  <si>
+    <t>20.12.2028</t>
+  </si>
+  <si>
+    <t>Boris: Face recognition - add a picture of the ontology, what sensors are aou using just camera and what camera?                                                                    -did you consider accuracy of the face recognition solution?  Did you consider security and trust in your application and how to ensure that</t>
+  </si>
+  <si>
+    <t>20.12.2029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gertrude: . What data are you recording on the PV power plant. Maybe you can add more details on the ontology on the used sensors.                -did you consider the suppliers of the inverters, batteries, ..etc. also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address                </t>
+  </si>
+  <si>
+    <t>20.12.2030</t>
+  </si>
+  <si>
+    <t>Wilfried: nice homepage; What data are you recording on the tracking system . Maybe you can add more details on the ontology on the used sensors.                                                                                                                            -do you have a class regarding the output of the solar panel for comparison without solar tracking? also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address</t>
+  </si>
+  <si>
+    <t>20.12.2031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamado: use also a picture for the ontology. Good explained how you added the ontology I will have a look – it sounded very reasonable:                     -a class about the accuracy of the translation and how to measure it in the app? also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address
+                </t>
+  </si>
+  <si>
+    <t>20.12.2032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Info</t>
   </si>
   <si>
     <r>
@@ -262,70 +318,6 @@
     </r>
   </si>
   <si>
-    <t>Adams: thanks a lot. Nice picture. Will have a look on the ontology; What data are you recording; any ideas in additional data (just pick two) and what kind of sensors would be interested for Ball Mill. What is an artisanal Mine. Maybe you can add a link to it. On the ontology also have the properties.                                                                                                      -Thank you for considering the Sustainability aspect (health, social and economic aspects), could you find any linkage to sustainable development Goals UN SDGs – 17 goals which ones your project address</t>
-  </si>
-  <si>
-    <t>Adjara; have you heard about Infineon loudspeaker and microphones. Maybe you can add those to your Ontology. It would be good to have properties between the classes.
- -Did you think of how your app could also reach customers outside Burkina, e.g. Spotify started in Sweden but also become worldwide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alicia; great that you already used Protege, Are you recording any data in your cowpea thresher; any ideas in additional data (just pick two) and what kind of sensors would be interested for cowpea tresher.                                                                                                              - please also find link between your project and the sustainable development Goals UN SDGs - 17 goals which ones your project address                           </t>
-  </si>
-  <si>
-    <t>Charles: Also put a picture of your ontology in. What data are you recording with the moisture sensor. Maybe you can add more details on the ontology on the moisture sensor and how it works.
- -please look at the linkage between your project and the sustainable development Goals UN SDGs - 17 goals which ones your project address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukas: Add a link to the smart dryer project (not just ontology). You explained verbally the sensors but add a picture and a document explaining the sensors. What data are you recording in which period. Make and example                                                                                                          -did you add a class in the drowling related to the fruit/vegetal supplier? Local farmers e.g. also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address
-                            </t>
-  </si>
-  <si>
-    <t>Boris: Face recognition - add a picture of the ontology, what sensors are aou using just camera and what camera?                                                                    -did you consider accuracy of the face recognition solution?  Did you consider security and trust in your application and how to ensure that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gertrude: . What data are you recording on the PV power plant. Maybe you can add more details on the ontology on the used sensors.                -did you consider the suppliers of the inverters, batteries, ..etc. also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address                </t>
-  </si>
-  <si>
-    <t>Wilfried: nice homepage; What data are you recording on the tracking system . Maybe you can add more details on the ontology on the used sensors.                                                                                                                            -do you have a class regarding the output of the solar panel for comparison without solar tracking? also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamado: use also a picture for the ontology. Good explained how you added the ontology I will have a look – it sounded very reasonable:                     -a class about the accuracy of the translation and how to measure it in the app? also look at the sustainable development Goals UN SDGs - 17 goals which ones your project address
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hans Ehm, Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,botho schanze, Seah Qiao Ling</t>
-  </si>
-  <si>
-    <t>20.12.2024</t>
-  </si>
-  <si>
-    <t>20.12.2025</t>
-  </si>
-  <si>
-    <t>20.12.2026</t>
-  </si>
-  <si>
-    <t>20.12.2027</t>
-  </si>
-  <si>
-    <t>20.12.2028</t>
-  </si>
-  <si>
-    <t>20.12.2029</t>
-  </si>
-  <si>
-    <t>20.12.2030</t>
-  </si>
-  <si>
-    <t>20.12.2031</t>
-  </si>
-  <si>
-    <t>20.12.2032</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Info</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hans Ehm,  Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer, Seah Qiao Ling, Tristan Scheuermann,James Cherupillet</t>
   </si>
   <si>
@@ -336,9 +328,6 @@
   </si>
   <si>
     <t>Alicia: I liked a lot your reduced class approach. Make sure that you explain well to Adjara that he can select the key 3-8 most important classes and relationships of the cowpea application. Greta pictures of the sensors, also hyperlink them</t>
-  </si>
-  <si>
-    <t>Lukas; It would be could show a reduced version (5 classes) ontology. Make sure that you explain well to Charles that he can select the key 3-8 most important classes and relationships of the Smart Dryer application</t>
   </si>
   <si>
     <r>
@@ -386,6 +375,9 @@
     </r>
   </si>
   <si>
+    <t>Lukas; It would be could show a reduced version (5 classes) ontology. Make sure that you explain well to Charles that he can select the key 3-8 most important classes and relationships of the Smart Dryer application</t>
+  </si>
+  <si>
     <r>
       <t>Boris: I liked a lot your reduced classes. Make sure that you explain well to </t>
     </r>
@@ -577,7 +569,13 @@
 Think about virtual big, think about demonstrators small – doable within 4-8 weeks, plan medium what can be done in one year, two years, five years</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>10.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer, Seah Qiao Ling, JamesDevassia Cherupillet</t>
   </si>
   <si>
     <t>Adams: thanks for integrating ball mill into the sustainable farm would be good if you can give some figures in an .xls. use class names for the column headlines
@@ -611,9 +609,6 @@
 Maybe we work together on building the farm .xls</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer, Seah Qiao Ling, JamesDevassia Cherupillet</t>
-  </si>
-  <si>
     <t>17.01.2025</t>
   </si>
   <si>
@@ -644,13 +639,261 @@
   <si>
     <t xml:space="preserve">Hamado:   language is important I agree                                                     To make sure the farm is “sustainable” medium and long term planning is important, therefore excellent work you did Hamada, could you include a performance baseline to assess planned progress vs actual progress e.g. you plan in one year that the sustainable is up and running, but what happens in actual life                                                           
 </t>
+  </si>
+  <si>
+    <t>24/1/2025</t>
+  </si>
+  <si>
+    <t>Hans Ehm,Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students, Seah Qiao Ling, JamesDevassia Cherupillet,</t>
+  </si>
+  <si>
+    <t>Adams:SWOT analysis is fine, but we also need to think how the Ball Mill is making money on the  farm; show the ball mill next Friday there will be time </t>
+  </si>
+  <si>
+    <t> - Very good to develop a SWOT, one suggestion is to look at the weakness and threats and try to think of mitigation measures</t>
+  </si>
+  <si>
+    <t>Adjara: I think you should play for 3 minutes the favorite music in the break out session and for one minute in the general assembly later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Very good analysis of risks, could you think of risk mitigations</t>
+  </si>
+  <si>
+    <t>Wilfried: really interested in the demonstrators and how they look - Very good benefits analysis from demonstrators</t>
+  </si>
+  <si>
+    <t> – is it possible to think of alternative analysis to increase the benefits e.g. say current yield expected is 80%, if we add fertilization we could increase yield by 10% but could would increase by say 2% or 3%</t>
+  </si>
+  <si>
+    <t>Hamado: I need to look in detail at your .xls file. I think you should start with the overall picture in the creative hour </t>
+  </si>
+  <si>
+    <t> - Excellent presentation – is it ok to widen your planned vs schedule to scope, schedule and cost</t>
+  </si>
+  <si>
+    <t>07.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm,Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer,JamesDevassia Cherupillet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams: Very good to develop a SWOT, and good to add weakness and threats and mitigation measures. Next step documentation in the excel sheet, SWOT Matrix
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjara: Very good analysis of risks, very good risk mitigations
+</t>
+  </si>
+  <si>
+    <t>Wilfried: 
+Very good benefits analysis from demonstrators – very good alternative analysis. Could you link these benefits to the requirements from the project. Requirements traceability matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamado: 
+Excellent presentation – is it ok to widen your planned vs schedule to scope, schedule and cost. Next step documentation in the excel sheet
+</t>
+  </si>
+  <si>
+    <t>Lucas: 
+ Good analysis of the kind of crops that can be grown in the farm Next step documentation in the excel sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boris: 
+Very good to develop a SWOT and mitigation measures- Next step documentation in the excel sheet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Charles: 
+Very good to develop a SWOT, and very good mitigation measures as well Next step documentation in the excel sheet
+</t>
+  </si>
+  <si>
+    <t>Gertrude: 
+Very good to develop a SWOT, and good mitigation measures. Next step documentation in the excel sheet</t>
+  </si>
+  <si>
+    <t>General: Feedback on the excel sheet and update</t>
+  </si>
+  <si>
+    <t>14.02.2025</t>
+  </si>
+  <si>
+    <t>Hans Ehm,Abdelgafar Ismail,Seah Qiao Ling, Excellence program Students</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Action - all sheets</t>
+  </si>
+  <si>
+    <t>Remove units from cells, the header should indicate the units</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>standardise to burkina faso currency</t>
+  </si>
+  <si>
+    <t>Action - farm</t>
+  </si>
+  <si>
+    <t>Add investment cost for running the farm</t>
+  </si>
+  <si>
+    <t>Action - solar PV power plant</t>
+  </si>
+  <si>
+    <t>Add energy consumption details, such as how long the sun is shining</t>
+  </si>
+  <si>
+    <t>Action - irrigation system</t>
+  </si>
+  <si>
+    <t>Write in what kind of crops you are growing</t>
+  </si>
+  <si>
+    <t>Explain what does efficiency mean?</t>
+  </si>
+  <si>
+    <t>only 2 digits after comma</t>
+  </si>
+  <si>
+    <t>Format columns so that it is easier to read</t>
+  </si>
+  <si>
+    <t>21.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm,Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer,Seah Qiao Ling, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams: Good to look at the specifications of your ball mill, quick look at standards if available
+Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the mill
+</t>
+  </si>
+  <si>
+    <t>Abdo &amp; Hans</t>
+  </si>
+  <si>
+    <t>Wilfried: 
+Great that you calculate energy savings &amp; payback period à translate savings into CO2 saved
+                                                                                                                                    Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the solar tracking</t>
+  </si>
+  <si>
+    <t>Hamado: 
+Excellent presentation – it is very important that you look at the monetary savings à could you show it in the UI of the app so that the consumer is aware of the cost savings
+                                                                                                                                    Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the no Reesa; also would be good to write out what no Reesa means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas: 
+ Good presentation and important step to document your progress in the excel sheet
+                                                                                                                                    Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the plants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boris: 
+Good presentation and important step to document your progress in the excel sheet
+                                                                                                                                   Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the facial recognition
+</t>
+  </si>
+  <si>
+    <t>Charles: 
+Very good updates water savings are also very important, to raise awareness about this you could make one slide about
+Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the irrigation system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gertrude: 
+Very good cost analysis – could you make a pie chart showing the most significant cost contributors i.e. is it energy, ..etc.?                                                                                                               
+                                                                                                                                           Maybe you have a look at your homepage and the Logos; you may change it in a way that you can tell a story using your homepage; e.g. once the Logo, once the ontology, once a picture of the PV system</t>
+  </si>
+  <si>
+    <t>General: - Add new sheets "Plants"                                                                      -Create Powerpoint file for the farm</t>
+  </si>
+  <si>
+    <t>28.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abdelgafar Ismail, Diallo Fadilatou, Excellence program Students,Marie Rahlmeyer,Seah Qiao Ling, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams:  Thanks for looking at the standards ISO, ..etc. standards make your product internally recognized – make an ontology of how standards are connected to your mill
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdo </t>
+  </si>
+  <si>
+    <t>Wilfried: 
+Translate savings into CO2 saved – Excellent work on the CO2 analysis. Very good to add to the excel – ideas for the logo: brainstorming to think about keywords needed to shape the brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamado: 
+Excellent presentation – please document your findings in the excel </t>
+  </si>
+  <si>
+    <t>Lucas: 
+  Good presentation and important step to document your progress in the excel sheet: business model canvas for the business model of the dryer</t>
+  </si>
+  <si>
+    <t>Boris: 
+Prompt retablissment, Good presentation and important: please check how to create user acceptance surveys</t>
+  </si>
+  <si>
+    <t>Charles: 
+Very good updates water savings thank you for adding a slide about water saving. Could you think how to use that for marketing for your product e.g. a label for marketing</t>
+  </si>
+  <si>
+    <t>Gertrude: 
+Very good cost analysis – I like the pie chart which show the most significant cost of the sustainable farm.</t>
+  </si>
+  <si>
+    <t>07.03.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students,Seah Qiao Ling, JamesDevassia Cherupillet, Tristan Scheuermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review PPT file about the sustainable farm and Gave Feedback            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General: 
+Refine Sustainable farm PPT to personal project </t>
+  </si>
+  <si>
+    <t>Share informaton about Interview preparation process                                                        Program will continue till end of April</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Status for A/I (action items)</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>A/I not started yet</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>A/I is started, not finished</t>
+  </si>
+  <si>
+    <t>A/I finished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,8 +991,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,8 +1092,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -844,12 +1168,333 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,12 +1605,155 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1807,25 +2595,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:E99"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="61.1796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="20.26953125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="20.28515625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="42.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1835,11 +2623,11 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1847,351 +2635,351 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="43.5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="43.5">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29.1">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24.95">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="29.1">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="24.95">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="43.5">
       <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="72.599999999999994">
       <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="29.1">
       <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="43.5">
       <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="43.5">
       <c r="A19" s="9">
         <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2199,265 +2987,265 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="57.95">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="57.95">
       <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="72.599999999999994">
       <c r="A24" s="1">
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="57.95">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="57.95">
       <c r="A26" s="1">
         <v>6</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="57.95">
       <c r="A27" s="1">
         <v>7</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="57.95">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="72.599999999999994">
       <c r="A29" s="1">
         <v>9</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="57.95">
       <c r="A30" s="1">
         <v>10</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>11</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="9">
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -2465,279 +3253,279 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="130.5">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="72.599999999999994">
       <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="72.599999999999994">
       <c r="A37" s="1">
         <v>4</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="72.599999999999994">
       <c r="A38" s="1">
         <v>5</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="116.1">
       <c r="A39" s="1">
         <v>6</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="57.95">
       <c r="A40" s="1">
         <v>7</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="72.599999999999994">
       <c r="A41" s="1">
         <v>8</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="87">
       <c r="A42" s="1">
         <v>9</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="87">
       <c r="A43" s="1">
         <v>10</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" ht="160.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="160.5">
       <c r="A44" s="1">
         <v>11</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45" s="9">
         <v>4</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -2745,281 +3533,281 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="57.95">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="43.5">
       <c r="A49" s="1">
         <v>3</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="57.95">
       <c r="A50" s="1">
         <v>4</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="43.5">
       <c r="A51" s="1">
         <v>5</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="57.95">
       <c r="A52" s="1">
         <v>6</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="43.5">
       <c r="A53" s="1">
         <v>7</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="43.5">
       <c r="A54" s="1">
         <v>8</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="43.5">
       <c r="A55" s="1">
         <v>9</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="57.95">
       <c r="A56" s="1">
         <v>10</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="159.6">
       <c r="A57" s="1">
         <v>11</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>12</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8">
       <c r="A59" s="9">
         <v>5</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -3027,83 +3815,83 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8">
       <c r="A60" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="304.5">
       <c r="A62" s="1">
         <v>2</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8">
       <c r="A63" s="9">
         <v>6</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -3111,257 +3899,257 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8">
       <c r="A64" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="29.1">
       <c r="A66" s="1">
         <v>2</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="57.95">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="43.5">
       <c r="A68" s="1">
         <v>4</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="72.599999999999994">
       <c r="A69" s="1">
         <v>5</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="43.5">
       <c r="A70" s="1">
         <v>6</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="43.5">
       <c r="A71" s="1">
         <v>7</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="43.5">
       <c r="A72" s="1">
         <v>8</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="43.5">
       <c r="A73" s="1">
         <v>9</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="1"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="72.599999999999994">
       <c r="A74" s="1">
         <v>10</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="1"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="188.45">
       <c r="A75" s="1">
         <v>11</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8">
       <c r="A76" s="9">
         <v>7</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -3369,257 +4157,257 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>1</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="72.599999999999994">
       <c r="A79" s="1">
         <v>2</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>3</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="43.5">
       <c r="A81" s="1">
         <v>4</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="43.5">
       <c r="A82" s="1">
         <v>5</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="43.5">
       <c r="A83" s="1">
         <v>6</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="43.5">
       <c r="A84" s="1">
         <v>7</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>8</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="29.1">
       <c r="A86" s="1">
         <v>9</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="1"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="29.1">
       <c r="A87" s="1">
         <v>10</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="1"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="72.599999999999994">
       <c r="A88" s="1">
         <v>11</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8">
       <c r="A89" s="9">
         <v>8</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -3627,211 +4415,1416 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8">
       <c r="A90" s="11" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>1</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="72.599999999999994">
       <c r="A92" s="1">
         <v>2</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="57.95">
       <c r="A93" s="1">
         <v>3</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="72.599999999999994">
       <c r="A94" s="1">
         <v>4</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="72.599999999999994">
       <c r="A95" s="1">
         <v>5</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="87">
       <c r="A96" s="1">
         <v>6</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="87">
       <c r="A97" s="1">
         <v>7</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="57.95">
       <c r="A98" s="1">
         <v>8</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="1"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="106.5">
       <c r="A99" s="1">
         <v>9</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="1"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
     </row>
+    <row r="100" spans="1:8" s="43" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A100" s="38">
+        <v>9</v>
+      </c>
+      <c r="B100" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" s="43" customFormat="1" ht="15.75">
+      <c r="A101" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.5">
+      <c r="A102" s="46">
+        <v>1</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="48"/>
+      <c r="F102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:8" ht="46.5">
+      <c r="A103" s="49">
+        <v>2</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="51"/>
+      <c r="F103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:8" ht="46.5">
+      <c r="A104" s="52"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:8" ht="46.5">
+      <c r="A105" s="49">
+        <v>3</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="51"/>
+      <c r="F105" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="20"/>
+      <c r="H105" s="56"/>
+    </row>
+    <row r="106" spans="1:8" ht="46.5">
+      <c r="A106" s="52"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="58"/>
+    </row>
+    <row r="107" spans="1:8" ht="30.75">
+      <c r="A107" s="49">
+        <v>4</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="51"/>
+      <c r="F107" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+    </row>
+    <row r="108" spans="1:8" ht="61.5">
+      <c r="A108" s="52"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+    </row>
+    <row r="109" spans="1:8" ht="30.75">
+      <c r="A109" s="49">
+        <v>5</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="51"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+    </row>
+    <row r="110" spans="1:8" ht="30.75">
+      <c r="A110" s="52"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+    </row>
+    <row r="111" spans="1:8" ht="15">
+      <c r="A111" s="9">
+        <v>10</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" ht="15">
+      <c r="A112" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="114" spans="1:8" ht="60.75">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:8" ht="30.75">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:8" ht="76.5">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="1:8" ht="76.5">
+      <c r="A117" s="1">
+        <v>5</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="1:8" ht="45.75">
+      <c r="A118" s="1">
+        <v>6</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8" ht="76.5">
+      <c r="A119" s="1">
+        <v>7</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" spans="1:8" ht="91.5">
+      <c r="A120" s="1">
+        <v>8</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="1:8" ht="60.75">
+      <c r="A121" s="1">
+        <v>9</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="1:8" ht="15">
+      <c r="A122" s="1">
+        <v>10</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="61"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1">
+      <c r="A123" s="62">
+        <v>11</v>
+      </c>
+      <c r="B123" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" ht="15">
+      <c r="A124" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15">
+      <c r="A125" s="68">
+        <v>1</v>
+      </c>
+      <c r="B125" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="1:8" ht="15">
+      <c r="A126" s="70">
+        <v>2</v>
+      </c>
+      <c r="B126" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D126" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E126" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:8" ht="15">
+      <c r="A127" s="72"/>
+      <c r="B127" s="73"/>
+      <c r="C127" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D127" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" spans="1:8" ht="15">
+      <c r="A128" s="74">
+        <v>3</v>
+      </c>
+      <c r="B128" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="1:8" ht="30.75">
+      <c r="A129" s="74">
+        <v>4</v>
+      </c>
+      <c r="B129" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D129" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+    </row>
+    <row r="130" spans="1:8" ht="15">
+      <c r="A130" s="70">
+        <v>5</v>
+      </c>
+      <c r="B130" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+    </row>
+    <row r="131" spans="1:8" ht="15">
+      <c r="A131" s="70"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+    </row>
+    <row r="132" spans="1:8" ht="15">
+      <c r="A132" s="70"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D132" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" spans="1:8" ht="15">
+      <c r="A133" s="72"/>
+      <c r="B133" s="73"/>
+      <c r="C133" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+    </row>
+    <row r="134" spans="1:8" ht="15">
+      <c r="A134" s="9">
+        <v>12</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:8" ht="15">
+      <c r="A135" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" ht="121.5">
+      <c r="A137" s="1">
+        <v>2</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+    </row>
+    <row r="138" spans="1:8" ht="106.5">
+      <c r="A138" s="1">
+        <v>3</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+    </row>
+    <row r="139" spans="1:8" ht="152.25">
+      <c r="A139" s="1">
+        <v>4</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+    </row>
+    <row r="140" spans="1:8" ht="152.25">
+      <c r="A140" s="1">
+        <v>5</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+    </row>
+    <row r="141" spans="1:8" ht="152.25">
+      <c r="A141" s="1">
+        <v>6</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="1:8" ht="152.25">
+      <c r="A142" s="1">
+        <v>7</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="1:8" ht="137.25">
+      <c r="A143" s="1">
+        <v>8</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+    </row>
+    <row r="144" spans="1:8" ht="30.75">
+      <c r="A144" s="1">
+        <v>9</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="61"/>
+    </row>
+    <row r="145" spans="1:8" ht="15">
+      <c r="A145" s="9">
+        <v>13</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="1:8" ht="15">
+      <c r="A146" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="1:8" ht="60.75">
+      <c r="A148" s="1">
+        <v>2</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" ht="60.75">
+      <c r="A149" s="1">
+        <v>3</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="1:8" ht="30.75">
+      <c r="A150" s="1">
+        <v>4</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="1:8" ht="76.5">
+      <c r="A151" s="1">
+        <v>5</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="1:8" ht="60.75">
+      <c r="A152" s="1">
+        <v>6</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" spans="1:8" ht="76.5">
+      <c r="A153" s="1">
+        <v>7</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+    </row>
+    <row r="154" spans="1:8" ht="60.75">
+      <c r="A154" s="1">
+        <v>8</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="155" spans="1:8" ht="15">
+      <c r="A155" s="9">
+        <v>14</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D155" s="35"/>
+      <c r="E155" s="35"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="1:8" ht="15">
+      <c r="A156" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+    </row>
+    <row r="158" spans="1:8" ht="15">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+    </row>
+    <row r="159" spans="1:8" ht="30.75">
+      <c r="A159" s="1">
+        <v>3</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+    </row>
+    <row r="160" spans="1:8" ht="30.75">
+      <c r="A160" s="1">
+        <v>4</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+    </row>
+    <row r="161" ht="15"/>
   </sheetData>
   <autoFilter ref="A3:H46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="7">
+  <mergeCells count="25">
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
     <mergeCell ref="C89:E89"/>
     <mergeCell ref="C76:E76"/>
     <mergeCell ref="C32:E32"/>
@@ -3841,14 +5834,25 @@
     <mergeCell ref="C63:E63"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="64" operator="equal">
+  <conditionalFormatting sqref="F1 F3:F99 F161:F1048576">
+    <cfRule type="cellIs" dxfId="5" priority="67" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="68" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="69" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100:F105 F107 F109 F111:F160">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3871,15 +5875,15 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3889,36 +5893,36 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="51.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3931,21 +5935,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D22D72570E156D4F9C34B893E183F0BF" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec9c283aea1b7e9b2a2bfe7317a7796f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -4059,41 +6048,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099BC07E-159D-4A16-BA20-897EF5E09C4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8C9434-3855-4EFD-872A-412CC9B888D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8C9434-3855-4EFD-872A-412CC9B888D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099BC07E-159D-4A16-BA20-897EF5E09C4C}"/>
 </file>
--- a/MoM_Excellence_program.xlsx
+++ b/MoM_Excellence_program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbceec1c4b8718ad/Documents/GitHub/Excellence-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4081501D-48DA-4DC2-AF00-E35D5A682289}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B16643-0B50-47D8-BABB-7E40BE07683F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="204">
   <si>
     <t>Meeting Minutes</t>
   </si>
@@ -866,6 +866,25 @@
   </si>
   <si>
     <t>Share informaton about Interview preparation process                                                        Program will continue till end of April</t>
+  </si>
+  <si>
+    <t>14.03.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students,Seah Qiao Ling, Isabella Lippert</t>
+  </si>
+  <si>
+    <t>Review PPT file about the sustainable farm and Feedack:                                        -Add Hyperlink                                                                                                      -Add Litterarure review                                                                                       -Add Picture related to BF</t>
+  </si>
+  <si>
+    <t>More Informaton about possible Internship</t>
+  </si>
+  <si>
+    <t>Participation to creative hour on March 28</t>
+  </si>
+  <si>
+    <t>Marie :                                                                                                                         Review and finalize the Call for Internship – as below
+Make a proposal for the certificate of completion which fulfills the requirement needed at bit</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -1494,7 +1513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1596,28 +1615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1652,71 +1653,104 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2595,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -2612,16 +2646,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="6"/>
@@ -3244,11 +3278,11 @@
       <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="9"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -3524,11 +3558,11 @@
       <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="9"/>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
@@ -3806,11 +3840,11 @@
       <c r="B59" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="9"/>
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
@@ -3890,11 +3924,11 @@
       <c r="B63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
       <c r="F63" s="9"/>
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
@@ -4148,11 +4182,11 @@
       <c r="B76" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
       <c r="F76" s="9"/>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
@@ -4406,11 +4440,11 @@
       <c r="B89" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="9"/>
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
@@ -4617,36 +4651,36 @@
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" s="43" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A100" s="38">
+    <row r="100" spans="1:8" s="37" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A100" s="35">
         <v>9</v>
       </c>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="40" t="s">
+      <c r="C100" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="42"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="74"/>
       <c r="F100" s="9"/>
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="1:8" s="43" customFormat="1" ht="15.75">
-      <c r="A101" s="44" t="s">
+    <row r="101" spans="1:8" s="37" customFormat="1" ht="15.75">
+      <c r="A101" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="45" t="s">
+      <c r="C101" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="45" t="s">
+      <c r="E101" s="39" t="s">
         <v>6</v>
       </c>
       <c r="F101" s="12" t="s">
@@ -4660,19 +4694,19 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5">
-      <c r="A102" s="46">
+      <c r="A102" s="40">
         <v>1</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="47" t="s">
+      <c r="C102" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="47" t="s">
+      <c r="D102" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="48"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="1" t="s">
         <v>22</v>
       </c>
@@ -4680,19 +4714,19 @@
       <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" ht="46.5">
-      <c r="A103" s="49">
+      <c r="A103" s="43">
         <v>2</v>
       </c>
-      <c r="B103" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="50" t="s">
+      <c r="B103" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="51"/>
+      <c r="E103" s="45"/>
       <c r="F103" s="1" t="s">
         <v>22</v>
       </c>
@@ -4700,13 +4734,13 @@
       <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" ht="46.5">
-      <c r="A104" s="52"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54" t="s">
+      <c r="A104" s="46"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="1" t="s">
         <v>22</v>
       </c>
@@ -4714,98 +4748,98 @@
       <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8" ht="46.5">
-      <c r="A105" s="49">
+      <c r="A105" s="43">
         <v>3</v>
       </c>
-      <c r="B105" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="50" t="s">
+      <c r="B105" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="51"/>
-      <c r="F105" s="55" t="s">
+      <c r="E105" s="45"/>
+      <c r="F105" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="56"/>
+      <c r="H105" s="68"/>
     </row>
     <row r="106" spans="1:8" ht="46.5">
-      <c r="A106" s="52"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54" t="s">
+      <c r="A106" s="46"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="57"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="67"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="58"/>
+      <c r="H106" s="69"/>
     </row>
     <row r="107" spans="1:8" ht="30.75">
-      <c r="A107" s="49">
+      <c r="A107" s="43">
         <v>4</v>
       </c>
-      <c r="B107" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="50" t="s">
+      <c r="B107" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="51"/>
-      <c r="F107" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
     </row>
     <row r="108" spans="1:8" ht="61.5">
-      <c r="A108" s="52"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54" t="s">
+      <c r="A108" s="46"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
     </row>
     <row r="109" spans="1:8" ht="30.75">
-      <c r="A109" s="49">
+      <c r="A109" s="43">
         <v>5</v>
       </c>
-      <c r="B109" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="50" t="s">
+      <c r="B109" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="51"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="68"/>
     </row>
     <row r="110" spans="1:8" ht="30.75">
-      <c r="A110" s="52"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="54" t="s">
+      <c r="A110" s="46"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="69"/>
     </row>
     <row r="111" spans="1:8" ht="15">
       <c r="A111" s="9">
@@ -4814,11 +4848,11 @@
       <c r="B111" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="9"/>
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
@@ -4936,7 +4970,7 @@
       <c r="B117" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C117" s="59" t="s">
+      <c r="C117" s="49" t="s">
         <v>143</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -5040,39 +5074,39 @@
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="61"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="51"/>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1">
-      <c r="A123" s="62">
+      <c r="A123" s="52">
         <v>11</v>
       </c>
-      <c r="B123" s="63" t="s">
+      <c r="B123" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="64" t="s">
+      <c r="C123" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D123" s="64"/>
-      <c r="E123" s="65"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
       <c r="F123" s="9"/>
       <c r="G123" s="14"/>
       <c r="H123" s="15"/>
     </row>
     <row r="124" spans="1:8" ht="15">
-      <c r="A124" s="66" t="s">
+      <c r="A124" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="67" t="s">
+      <c r="C124" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="67" t="s">
+      <c r="D124" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E124" s="67" t="s">
+      <c r="E124" s="55" t="s">
         <v>6</v>
       </c>
       <c r="F124" s="12" t="s">
@@ -5086,19 +5120,19 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="15">
-      <c r="A125" s="68">
+      <c r="A125" s="56">
         <v>1</v>
       </c>
-      <c r="B125" s="69" t="s">
+      <c r="B125" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="69" t="s">
+      <c r="C125" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="69" t="s">
+      <c r="D125" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E125" s="69" t="s">
+      <c r="E125" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -5108,19 +5142,19 @@
       <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8" ht="15">
-      <c r="A126" s="70">
+      <c r="A126" s="62">
         <v>2</v>
       </c>
-      <c r="B126" s="71" t="s">
+      <c r="B126" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="C126" s="69" t="s">
+      <c r="C126" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="D126" s="69" t="s">
+      <c r="D126" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E126" s="69" t="s">
+      <c r="E126" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -5130,15 +5164,15 @@
       <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" ht="15">
-      <c r="A127" s="72"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="69" t="s">
+      <c r="A127" s="63"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D127" s="69" t="s">
+      <c r="D127" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="E127" s="69" t="s">
+      <c r="E127" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -5148,19 +5182,19 @@
       <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8" ht="15">
-      <c r="A128" s="74">
+      <c r="A128" s="58">
         <v>3</v>
       </c>
-      <c r="B128" s="69" t="s">
+      <c r="B128" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="C128" s="69" t="s">
+      <c r="C128" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D128" s="69" t="s">
+      <c r="D128" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E128" s="69" t="s">
+      <c r="E128" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -5170,19 +5204,19 @@
       <c r="H128" s="20"/>
     </row>
     <row r="129" spans="1:8" ht="30.75">
-      <c r="A129" s="74">
+      <c r="A129" s="58">
         <v>4</v>
       </c>
-      <c r="B129" s="69" t="s">
+      <c r="B129" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="69" t="s">
+      <c r="C129" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D129" s="69" t="s">
+      <c r="D129" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E129" s="69" t="s">
+      <c r="E129" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -5192,19 +5226,19 @@
       <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="15">
-      <c r="A130" s="70">
+      <c r="A130" s="62">
         <v>5</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C130" s="69" t="s">
+      <c r="C130" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D130" s="69" t="s">
+      <c r="D130" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E130" s="69" t="s">
+      <c r="E130" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -5214,15 +5248,15 @@
       <c r="H130" s="20"/>
     </row>
     <row r="131" spans="1:8" ht="15">
-      <c r="A131" s="70"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="69" t="s">
+      <c r="A131" s="62"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D131" s="69" t="s">
+      <c r="D131" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E131" s="69" t="s">
+      <c r="E131" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -5232,15 +5266,15 @@
       <c r="H131" s="20"/>
     </row>
     <row r="132" spans="1:8" ht="15">
-      <c r="A132" s="70"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="69" t="s">
+      <c r="A132" s="62"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="D132" s="69" t="s">
+      <c r="D132" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E132" s="69" t="s">
+      <c r="E132" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F132" s="1"/>
@@ -5248,15 +5282,15 @@
       <c r="H132" s="20"/>
     </row>
     <row r="133" spans="1:8" ht="15">
-      <c r="A133" s="72"/>
-      <c r="B133" s="73"/>
-      <c r="C133" s="69" t="s">
+      <c r="A133" s="63"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D133" s="69" t="s">
+      <c r="D133" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E133" s="69" t="s">
+      <c r="E133" s="57" t="s">
         <v>151</v>
       </c>
       <c r="F133" s="1"/>
@@ -5270,11 +5304,11 @@
       <c r="B134" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="9"/>
       <c r="G134" s="14"/>
       <c r="H134" s="15"/>
@@ -5332,7 +5366,7 @@
       <c r="B137" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C137" s="59" t="s">
         <v>167</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -5392,7 +5426,7 @@
       <c r="B140" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C140" s="59" t="s">
+      <c r="C140" s="49" t="s">
         <v>171</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -5412,7 +5446,7 @@
       <c r="B141" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C141" s="76" t="s">
+      <c r="C141" s="60" t="s">
         <v>172</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -5478,8 +5512,8 @@
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="61"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="51"/>
     </row>
     <row r="145" spans="1:8" ht="15">
       <c r="A145" s="9">
@@ -5488,11 +5522,11 @@
       <c r="B145" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="9"/>
       <c r="G145" s="14"/>
       <c r="H145" s="15"/>
@@ -5550,7 +5584,7 @@
       <c r="B148" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="59" t="s">
         <v>178</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -5610,7 +5644,7 @@
       <c r="B151" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="59" t="s">
+      <c r="C151" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -5630,7 +5664,7 @@
       <c r="B152" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="76" t="s">
+      <c r="C152" s="60" t="s">
         <v>183</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -5688,11 +5722,11 @@
       <c r="B155" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="9"/>
       <c r="G155" s="14"/>
       <c r="H155" s="15"/>
@@ -5750,7 +5784,7 @@
       <c r="B158" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C158" s="75" t="s">
+      <c r="C158" s="59" t="s">
         <v>188</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -5803,10 +5837,180 @@
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
     </row>
-    <row r="161" ht="15"/>
+    <row r="161" spans="1:8" ht="15">
+      <c r="A161" s="9">
+        <v>15</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D161" s="61"/>
+      <c r="E161" s="61"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="15"/>
+    </row>
+    <row r="162" spans="1:8" ht="15">
+      <c r="A162" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+    </row>
+    <row r="164" spans="1:8" ht="60.75">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+    </row>
+    <row r="165" spans="1:8" ht="15">
+      <c r="A165" s="1">
+        <v>3</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+    </row>
+    <row r="166" spans="1:8" ht="15">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" spans="1:8" ht="60.75">
+      <c r="A167" s="1">
+        <v>5</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+    </row>
+    <row r="168" spans="1:8" ht="15">
+      <c r="A168" s="77"/>
+      <c r="B168" s="78"/>
+      <c r="C168" s="79"/>
+      <c r="D168" s="77"/>
+      <c r="E168" s="80"/>
+      <c r="F168" s="77"/>
+      <c r="G168" s="81"/>
+      <c r="H168" s="81"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:H46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C123:E123"/>
     <mergeCell ref="C145:E145"/>
     <mergeCell ref="C155:E155"/>
     <mergeCell ref="A126:A127"/>
@@ -5814,27 +6018,9 @@
     <mergeCell ref="A130:A133"/>
     <mergeCell ref="B130:B133"/>
     <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C63:E63"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F3:F99 F161:F1048576">
+  <conditionalFormatting sqref="F1 F3:F99 F169:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="67" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
@@ -5845,7 +6031,7 @@
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F105 F107 F109 F111:F160">
+  <conditionalFormatting sqref="F100:F105 F107 F109 F111:F168">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
@@ -5882,23 +6068,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="A1" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5906,15 +6092,15 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5922,7 +6108,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5935,6 +6121,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D22D72570E156D4F9C34B893E183F0BF" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec9c283aea1b7e9b2a2bfe7317a7796f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -6048,15 +6243,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6064,11 +6250,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8C9434-3855-4EFD-872A-412CC9B888D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8C9434-3855-4EFD-872A-412CC9B888D4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/MoM_Excellence_program.xlsx
+++ b/MoM_Excellence_program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbceec1c4b8718ad/Documents/GitHub/Excellence-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B16643-0B50-47D8-BABB-7E40BE07683F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{22FD50FF-7022-42AF-BDFC-94CFFD8376F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97818A13-62E3-4AF0-B9A3-60DE15101736}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="211">
   <si>
     <t>Meeting Minutes</t>
   </si>
@@ -885,6 +885,31 @@
   <si>
     <t>Marie :                                                                                                                         Review and finalize the Call for Internship – as below
 Make a proposal for the certificate of completion which fulfills the requirement needed at bit</t>
+  </si>
+  <si>
+    <t>21.03.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hans Ehm, Diallo Fadilatou, Excellence program Students, Isabella Lippert, JamesDevassia Cherupillet, Tristan Scheuermann,Marie Rahlmeyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamado: headline - should be sustainbale farm; APIA foot note what is is in long. Us spell checker (a dot before This on page 4) . on the plant maybe the real fruits. page 10 could also have a source.mI like the link on page 14 at the end a backup with the sources
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas: 1st page and also put your name on the frist page; 1st Page - sustainabale Farm: FGocus:Samrt Dryer. For all Abreviations like TIC have an asterix liek TIC*) and then at a footnote *) TIC = T.... Page 13 the pic could be more precise not an icon but more a real one where we see the topic like Sensor ... - a real canvas business model like from Hamado would be great
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boris: Same feedback as before. Include the facial recognition  into the Title I think facial recognition of people and and plants are different - you should be more precise on the solution; please add ontology and Canvas business model
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles. At About me don't forget your name. Skills not Skyyls, add  a bit about what you study; schematic picture is nice. Not the data inside .xls but the data for irrigation 
+</t>
+  </si>
+  <si>
+    <t>Gertrude: perfect personal intro page; page 8 you could add hypelinks to the suppliers - I like the Canvas and the ontologies. for the data type to make same numbers not , many number but just max on one number after the digit and nmyby kilo or mega tio get smaller numbers</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -1513,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1692,6 +1717,36 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1704,53 +1759,11 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2629,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -2646,16 +2659,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="6"/>
@@ -4658,11 +4671,11 @@
       <c r="B100" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="72" t="s">
+      <c r="C100" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="73"/>
-      <c r="E100" s="74"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="9"/>
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
@@ -5142,10 +5155,10 @@
       <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8" ht="15">
-      <c r="A126" s="62">
+      <c r="A126" s="72">
         <v>2</v>
       </c>
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="74" t="s">
         <v>152</v>
       </c>
       <c r="C126" s="57" t="s">
@@ -5164,8 +5177,8 @@
       <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" ht="15">
-      <c r="A127" s="63"/>
-      <c r="B127" s="65"/>
+      <c r="A127" s="73"/>
+      <c r="B127" s="75"/>
       <c r="C127" s="57" t="s">
         <v>155</v>
       </c>
@@ -5226,10 +5239,10 @@
       <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="15">
-      <c r="A130" s="62">
+      <c r="A130" s="72">
         <v>5</v>
       </c>
-      <c r="B130" s="64" t="s">
+      <c r="B130" s="74" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="57" t="s">
@@ -5248,8 +5261,8 @@
       <c r="H130" s="20"/>
     </row>
     <row r="131" spans="1:8" ht="15">
-      <c r="A131" s="62"/>
-      <c r="B131" s="64"/>
+      <c r="A131" s="72"/>
+      <c r="B131" s="74"/>
       <c r="C131" s="57" t="s">
         <v>162</v>
       </c>
@@ -5266,8 +5279,8 @@
       <c r="H131" s="20"/>
     </row>
     <row r="132" spans="1:8" ht="15">
-      <c r="A132" s="62"/>
-      <c r="B132" s="64"/>
+      <c r="A132" s="72"/>
+      <c r="B132" s="74"/>
       <c r="C132" s="57" t="s">
         <v>163</v>
       </c>
@@ -5282,8 +5295,8 @@
       <c r="H132" s="20"/>
     </row>
     <row r="133" spans="1:8" ht="15">
-      <c r="A133" s="63"/>
-      <c r="B133" s="65"/>
+      <c r="A133" s="73"/>
+      <c r="B133" s="75"/>
       <c r="C133" s="57" t="s">
         <v>164</v>
       </c>
@@ -5980,18 +5993,181 @@
       <c r="H167" s="20"/>
     </row>
     <row r="168" spans="1:8" ht="15">
-      <c r="A168" s="77"/>
-      <c r="B168" s="78"/>
-      <c r="C168" s="79"/>
+      <c r="A168" s="9">
+        <v>16</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" s="77" t="s">
+        <v>198</v>
+      </c>
       <c r="D168" s="77"/>
-      <c r="E168" s="80"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="81"/>
-      <c r="H168" s="81"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="1:8" ht="15">
+      <c r="A169" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+    </row>
+    <row r="171" spans="1:8" ht="76.5">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="4"/>
+      <c r="F171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+    </row>
+    <row r="172" spans="1:8" ht="106.5">
+      <c r="A172" s="1">
+        <v>3</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" spans="1:8" ht="76.5">
+      <c r="A173" s="1">
+        <v>4</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="4"/>
+      <c r="F173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" spans="1:8" ht="60.75">
+      <c r="A174" s="1">
+        <v>5</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" spans="1:8" ht="76.5">
+      <c r="A175" s="1">
+        <v>6</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C155:E155"/>
     <mergeCell ref="C161:E161"/>
     <mergeCell ref="C89:E89"/>
     <mergeCell ref="C76:E76"/>
@@ -6008,19 +6184,9 @@
     <mergeCell ref="H107:H108"/>
     <mergeCell ref="F109:F110"/>
     <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C134:E134"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F3:F99 F169:F1048576">
+  <conditionalFormatting sqref="F1 F3:F99 F176:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="67" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
@@ -6031,7 +6197,7 @@
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F105 F107 F109 F111:F168">
+  <conditionalFormatting sqref="F100:F105 F107 F109 F111:F175">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ongoing"</formula>
     </cfRule>
@@ -6069,7 +6235,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -6081,10 +6247,10 @@
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6092,15 +6258,15 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6108,7 +6274,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6121,15 +6287,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D22D72570E156D4F9C34B893E183F0BF" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec9c283aea1b7e9b2a2bfe7317a7796f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -6243,6 +6400,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6250,11 +6416,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8C9434-3855-4EFD-872A-412CC9B888D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8C9434-3855-4EFD-872A-412CC9B888D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796D9FC9-4B98-4FFD-BB78-C2E8DE274F9F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
